--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/93.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/93.xlsx
@@ -479,13 +479,13 @@
         <v>-10.740987291567</v>
       </c>
       <c r="E2" t="n">
-        <v>-20.65408387765222</v>
+        <v>-20.65476833861359</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.3035118526921</v>
+        <v>-3.270388831168751</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.972809104573541</v>
+        <v>-8.999356411860889</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-10.3724189831561</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.10205379885391</v>
+        <v>-21.10183379354489</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.592941059213465</v>
+        <v>-3.582072796948313</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.827620267646767</v>
+        <v>-8.895782801385295</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.947828340321662</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.64668916382823</v>
+        <v>-21.67307513388897</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.259916578459819</v>
+        <v>-3.258342318248673</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.504544915867294</v>
+        <v>-8.564068574471984</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-9.491646064816287</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.73418771972541</v>
+        <v>-21.78098529345552</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.031135502122534</v>
+        <v>-3.03578494765297</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.157870327941222</v>
+        <v>-8.266137385009053</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-9.001671336609286</v>
       </c>
       <c r="E6" t="n">
-        <v>-22.09324127303851</v>
+        <v>-22.14707412765011</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.089544467161567</v>
+        <v>-3.071611589973723</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.450768375772446</v>
+        <v>-7.567346744514032</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.467530089663418</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.55888984307096</v>
+        <v>-22.61067420380532</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.094555699200155</v>
+        <v>-3.093030329057677</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.349886254514872</v>
+        <v>-6.473666130371425</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.889281161837527</v>
       </c>
       <c r="E8" t="n">
-        <v>-23.05194129659246</v>
+        <v>-23.10513858031137</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.022139729487411</v>
+        <v>-3.004397523567377</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.730468640504216</v>
+        <v>-5.867649284182983</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.251566622889586</v>
       </c>
       <c r="E9" t="n">
-        <v>-23.25984142460116</v>
+        <v>-23.3053923015802</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.839637992152343</v>
+        <v>-2.830916003901766</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.925068316269249</v>
+        <v>-5.07555194763289</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.560125359933049</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.74364287713046</v>
+        <v>-23.79531967971375</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.165304517571281</v>
+        <v>-3.14053680878349</v>
       </c>
       <c r="G10" t="n">
-        <v>-3.859763497982215</v>
+        <v>-4.005206563266068</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.810708859262332</v>
       </c>
       <c r="E11" t="n">
-        <v>-24.09356865462303</v>
+        <v>-24.15586926912813</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.243821967853935</v>
+        <v>-3.215143053572612</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.881947457578625</v>
+        <v>-3.024608677955203</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.031070995865795</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.53010807776986</v>
+        <v>-24.61167626833747</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.94689791380559</v>
+        <v>-2.937232347229699</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.924029675123378</v>
+        <v>-2.094074222961547</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.240849334216964</v>
       </c>
       <c r="E13" t="n">
-        <v>-25.12106189380134</v>
+        <v>-25.23020897210522</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.978598234330666</v>
+        <v>-2.950002433166081</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.656068097754637</v>
+        <v>-1.833231039591034</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-3.493657564302426</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.55350921820057</v>
+        <v>-25.66591726408468</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.809692825092489</v>
+        <v>-2.731038482617561</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.7326178137111404</v>
+        <v>-0.8996262882849551</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.828163253747494</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.28674291207301</v>
+        <v>-26.38841958788424</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.665462233511631</v>
+        <v>-2.602354932873492</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1173409191088902</v>
+        <v>-0.02435227790803885</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.306321345518437</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.91968351907755</v>
+        <v>-27.00991502981333</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.509307354182367</v>
+        <v>-2.434544661173504</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6046575675755046</v>
+        <v>0.4484977992393742</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-1.960760629074676</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.82092793393151</v>
+        <v>-27.95194598445454</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.506124610712006</v>
+        <v>-2.444498679154543</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9561869393204232</v>
+        <v>0.8206343349283393</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.830633655140582</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.56476588369829</v>
+        <v>-28.67639168848369</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.418753168993368</v>
+        <v>-2.376267699319877</v>
       </c>
       <c r="G18" t="n">
-        <v>1.241059591441823</v>
+        <v>1.113280507968134</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.915254987391835</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.05164496605031</v>
+        <v>-29.179920283721</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.520571626003739</v>
+        <v>-2.432549946371803</v>
       </c>
       <c r="G19" t="n">
-        <v>1.55730011162135</v>
+        <v>1.450890877162946</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-2.213651282541129</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.83261003396444</v>
+        <v>-29.96452277274411</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.20677560925767</v>
+        <v>-2.129411964595608</v>
       </c>
       <c r="G20" t="n">
-        <v>1.455124757109694</v>
+        <v>1.362355851809983</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.688904268211997</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.64379160881954</v>
+        <v>-30.77548434229019</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.091082150758995</v>
+        <v>-2.016725245320085</v>
       </c>
       <c r="G21" t="n">
-        <v>1.111740470805056</v>
+        <v>1.024926375869247</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.305546865396715</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.96072636797417</v>
+        <v>-31.13247473470545</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.098063652564949</v>
+        <v>-2.008707274058345</v>
       </c>
       <c r="G22" t="n">
-        <v>1.189192117590723</v>
+        <v>1.088845251647293</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-4.002182029178798</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.75526331895085</v>
+        <v>-31.9018895238965</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.882546451857605</v>
+        <v>-1.811401623930258</v>
       </c>
       <c r="G23" t="n">
-        <v>1.34884263682983</v>
+        <v>1.272192787170338</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-4.724869505904131</v>
       </c>
       <c r="E24" t="n">
-        <v>-32.04600766831941</v>
+        <v>-32.22598178910429</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.764784943454224</v>
+        <v>-1.704039033132806</v>
       </c>
       <c r="G24" t="n">
-        <v>1.179619442145303</v>
+        <v>1.100368640832612</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-5.407575173420938</v>
       </c>
       <c r="E25" t="n">
-        <v>-32.66821201624421</v>
+        <v>-32.82945146271507</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.574783469585309</v>
+        <v>-1.519816365380584</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8370565089943066</v>
+        <v>0.7705562375905295</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-5.99895764842572</v>
       </c>
       <c r="E26" t="n">
-        <v>-32.38980996471118</v>
+        <v>-32.54095116749841</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.581153845532899</v>
+        <v>-1.546617901025012</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8076295766623456</v>
+        <v>0.7504037512851061</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-6.450634255272066</v>
       </c>
       <c r="E27" t="n">
-        <v>-32.90332191197072</v>
+        <v>-33.06598161493641</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.371513231079586</v>
+        <v>-1.33554969656656</v>
       </c>
       <c r="G27" t="n">
-        <v>1.042345907336065</v>
+        <v>0.9727313385580634</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-6.734252088256173</v>
       </c>
       <c r="E28" t="n">
-        <v>-32.62624478129862</v>
+        <v>-32.78952049912954</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.302661347372823</v>
+        <v>-1.266003573884694</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9782852503588787</v>
+        <v>0.8986384394899672</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-6.830157319493238</v>
       </c>
       <c r="E29" t="n">
-        <v>-33.05327753059274</v>
+        <v>-33.16938899917853</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.221616280539974</v>
+        <v>-1.200979782554725</v>
       </c>
       <c r="G29" t="n">
-        <v>1.602968324765202</v>
+        <v>1.544349132430892</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-6.735282673600481</v>
       </c>
       <c r="E30" t="n">
-        <v>-33.1596549865065</v>
+        <v>-33.30972305228646</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.300480850310179</v>
+        <v>-1.260205211740533</v>
       </c>
       <c r="G30" t="n">
-        <v>1.828996890236414</v>
+        <v>1.774093343120959</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-6.455185635674339</v>
       </c>
       <c r="E31" t="n">
-        <v>-32.92417597076155</v>
+        <v>-33.0257744224629</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.58131029375264</v>
+        <v>-1.541582223952089</v>
       </c>
       <c r="G31" t="n">
-        <v>2.449123410242773</v>
+        <v>2.385365871691335</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-6.01030972669196</v>
       </c>
       <c r="E32" t="n">
-        <v>-32.77947603452147</v>
+        <v>-32.89489326413216</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.688223095918336</v>
+        <v>-1.64688654285857</v>
       </c>
       <c r="G32" t="n">
-        <v>2.585898266351586</v>
+        <v>2.545583515727005</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.429586568599428</v>
       </c>
       <c r="E33" t="n">
-        <v>-31.9754788552573</v>
+        <v>-32.09990896902715</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.938075791852025</v>
+        <v>-1.872836884219912</v>
       </c>
       <c r="G33" t="n">
-        <v>3.46290298515939</v>
+        <v>3.398226313316972</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.754520321344444</v>
       </c>
       <c r="E34" t="n">
-        <v>-31.7719323878636</v>
+        <v>-31.90313133164069</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.12820437989948</v>
+        <v>-2.075755114231217</v>
       </c>
       <c r="G34" t="n">
-        <v>4.01867061876968</v>
+        <v>3.943277243874985</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.028750257524168</v>
       </c>
       <c r="E35" t="n">
-        <v>-31.33027661903053</v>
+        <v>-31.45284646568753</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.247173472998989</v>
+        <v>-2.224043581511614</v>
       </c>
       <c r="G35" t="n">
-        <v>4.498619533887854</v>
+        <v>4.433092174850593</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.300808718026745</v>
       </c>
       <c r="E36" t="n">
-        <v>-31.67299600040127</v>
+        <v>-31.79019771751839</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.307474483695517</v>
+        <v>-2.264304553060658</v>
       </c>
       <c r="G36" t="n">
-        <v>4.797772975067513</v>
+        <v>4.731707825274891</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.612917139206306</v>
       </c>
       <c r="E37" t="n">
-        <v>-30.87783814555249</v>
+        <v>-30.98740812295036</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.326302049140007</v>
+        <v>-2.275368375600487</v>
       </c>
       <c r="G37" t="n">
-        <v>5.041988646083649</v>
+        <v>4.964908563819868</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.00656987766335</v>
       </c>
       <c r="E38" t="n">
-        <v>-30.29847616480247</v>
+        <v>-30.40946639869517</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.579053926145776</v>
+        <v>-2.520156060420051</v>
       </c>
       <c r="G38" t="n">
-        <v>5.237333804458102</v>
+        <v>5.187040590818148</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.510922178258174</v>
       </c>
       <c r="E39" t="n">
-        <v>-29.58175753612647</v>
+        <v>-29.67513512278111</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.564587354826574</v>
+        <v>-2.523573476220025</v>
       </c>
       <c r="G39" t="n">
-        <v>5.561548294837567</v>
+        <v>5.507822998377038</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.149081557961109</v>
       </c>
       <c r="E40" t="n">
-        <v>-29.29894804490291</v>
+        <v>-29.39114004739232</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.720253333469147</v>
+        <v>-2.673480204773371</v>
       </c>
       <c r="G40" t="n">
-        <v>5.431490934163895</v>
+        <v>5.351247664457221</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.9285027064108404</v>
       </c>
       <c r="E41" t="n">
-        <v>-28.80925533909897</v>
+        <v>-28.90435385617077</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.704852961838364</v>
+        <v>-2.650462760443935</v>
       </c>
       <c r="G41" t="n">
-        <v>5.802952786905226</v>
+        <v>5.745961633857599</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.8497827797007533</v>
       </c>
       <c r="E42" t="n">
-        <v>-28.1887914776188</v>
+        <v>-28.29251420280383</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.69138863692688</v>
+        <v>-2.64286524377275</v>
       </c>
       <c r="G42" t="n">
-        <v>5.633675813145163</v>
+        <v>5.58485419057215</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.8983134161728459</v>
       </c>
       <c r="E43" t="n">
-        <v>-27.58141548752135</v>
+        <v>-27.66875515069535</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.752466999715249</v>
+        <v>-2.703752935293308</v>
       </c>
       <c r="G43" t="n">
-        <v>6.058931408443159</v>
+        <v>5.98208599850899</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.054186830902827</v>
       </c>
       <c r="E44" t="n">
-        <v>-26.95132272701679</v>
+        <v>-27.02054128623857</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.811320864379171</v>
+        <v>-2.753972813830259</v>
       </c>
       <c r="G44" t="n">
-        <v>5.674357239284762</v>
+        <v>5.624533370304032</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.28891215328952</v>
       </c>
       <c r="E45" t="n">
-        <v>-26.00538545588892</v>
+        <v>-26.11920642475756</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.648878722219055</v>
+        <v>-2.603748299830563</v>
       </c>
       <c r="G45" t="n">
-        <v>5.538477071432595</v>
+        <v>5.490872811569444</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.57370132451257</v>
       </c>
       <c r="E46" t="n">
-        <v>-25.47440019808702</v>
+        <v>-25.56825446291118</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.573187117905478</v>
+        <v>-2.520185394461253</v>
       </c>
       <c r="G46" t="n">
-        <v>5.500000587389975</v>
+        <v>5.443786786434186</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.876915760351882</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.65507598229508</v>
+        <v>-24.75237210795355</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.615169019871677</v>
+        <v>-2.553880429788031</v>
       </c>
       <c r="G47" t="n">
-        <v>5.536110792109008</v>
+        <v>5.457539562750818</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.170776120870205</v>
       </c>
       <c r="E48" t="n">
-        <v>-24.37895954147232</v>
+        <v>-24.4449709121894</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.533204819747847</v>
+        <v>-2.491716707475207</v>
       </c>
       <c r="G48" t="n">
-        <v>5.406610778218165</v>
+        <v>5.303692294662739</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.430526618757497</v>
       </c>
       <c r="E49" t="n">
-        <v>-23.35725488642444</v>
+        <v>-23.4437805299551</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.536343562156407</v>
+        <v>-2.472273127165487</v>
       </c>
       <c r="G49" t="n">
-        <v>5.015881349414323</v>
+        <v>4.953385174634549</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.637728388143969</v>
       </c>
       <c r="E50" t="n">
-        <v>-22.97716882556987</v>
+        <v>-23.04544380646633</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.376013470962798</v>
+        <v>-2.324781568004396</v>
       </c>
       <c r="G50" t="n">
-        <v>4.988854919454017</v>
+        <v>4.890742329648767</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.778967626888468</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.515172343667</v>
+        <v>-22.61160311511004</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.193037499961639</v>
+        <v>-2.123041588648018</v>
       </c>
       <c r="G51" t="n">
-        <v>4.771543453226514</v>
+        <v>4.706729889191823</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.847702841578405</v>
       </c>
       <c r="E52" t="n">
-        <v>-21.67246889703748</v>
+        <v>-21.76301330421274</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.074684421727362</v>
+        <v>-1.997892790868729</v>
       </c>
       <c r="G52" t="n">
-        <v>4.651914344199972</v>
+        <v>4.572492427646939</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.843454197355436</v>
       </c>
       <c r="E53" t="n">
-        <v>-20.66840866777229</v>
+        <v>-20.76978711416463</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.183107927014935</v>
+        <v>-2.098249434825892</v>
       </c>
       <c r="G53" t="n">
-        <v>4.524966391893659</v>
+        <v>4.432681498273772</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-2.772043008710129</v>
       </c>
       <c r="E54" t="n">
-        <v>-19.98677844138014</v>
+        <v>-20.1186985136701</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.857358288479259</v>
+        <v>-1.767312560004419</v>
       </c>
       <c r="G54" t="n">
-        <v>4.561521496237582</v>
+        <v>4.489961102726547</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-2.645208294632301</v>
       </c>
       <c r="E55" t="n">
-        <v>-19.35812060439101</v>
+        <v>-19.47913819136776</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.916094816978375</v>
+        <v>-1.822142772016871</v>
       </c>
       <c r="G55" t="n">
-        <v>4.023676961801401</v>
+        <v>3.964451532615594</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-2.478828095045641</v>
       </c>
       <c r="E56" t="n">
-        <v>-18.90050467264091</v>
+        <v>-19.02492989740389</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.088877208662016</v>
+        <v>-1.989537478133171</v>
       </c>
       <c r="G56" t="n">
-        <v>4.080184103169205</v>
+        <v>4.033376751425361</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-2.292101303207235</v>
       </c>
       <c r="E57" t="n">
-        <v>-18.43013821098188</v>
+        <v>-18.56991491730698</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.053471020931818</v>
+        <v>-1.947936918702592</v>
       </c>
       <c r="G57" t="n">
-        <v>3.518222097858533</v>
+        <v>3.494339299313653</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-2.104385404903599</v>
       </c>
       <c r="E58" t="n">
-        <v>-17.56215370984354</v>
+        <v>-17.67112967290707</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.380291351971349</v>
+        <v>-2.284633043613291</v>
       </c>
       <c r="G58" t="n">
-        <v>3.16018545797375</v>
+        <v>3.136155989222863</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-1.934675214954645</v>
       </c>
       <c r="E59" t="n">
-        <v>-17.04992268238313</v>
+        <v>-17.20280681611842</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.404296375687901</v>
+        <v>-2.304541079575368</v>
       </c>
       <c r="G59" t="n">
-        <v>3.121430300539715</v>
+        <v>3.108347318163851</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-1.798330472986827</v>
       </c>
       <c r="E60" t="n">
-        <v>-16.44414539753116</v>
+        <v>-16.58317408580562</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.527753577091237</v>
+        <v>-2.42062076961653</v>
       </c>
       <c r="G60" t="n">
-        <v>2.635194122590689</v>
+        <v>2.625103212417377</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-1.708652120645543</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.68411505702116</v>
+        <v>-15.82712339688529</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.399109139402104</v>
+        <v>-2.288764254415834</v>
       </c>
       <c r="G61" t="n">
-        <v>2.188979354854229</v>
+        <v>2.174106995965074</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-1.673010556270838</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.7523215918215</v>
+        <v>-15.85537207856233</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.764660182841335</v>
+        <v>-2.639589609171917</v>
       </c>
       <c r="G62" t="n">
-        <v>1.570813326601503</v>
+        <v>1.582082487429742</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.69606942735263</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.0396510608313</v>
+        <v>-15.191161383637</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.944864086948953</v>
+        <v>-2.828799063928392</v>
       </c>
       <c r="G63" t="n">
-        <v>1.232381604253049</v>
+        <v>1.230797566028169</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.775587979846327</v>
       </c>
       <c r="E64" t="n">
-        <v>-14.96971381760009</v>
+        <v>-15.101893007254</v>
       </c>
       <c r="F64" t="n">
-        <v>-3.136997167811844</v>
+        <v>-3.034068906242683</v>
       </c>
       <c r="G64" t="n">
-        <v>0.7847588025389174</v>
+        <v>0.7966879792941899</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-1.907066327773034</v>
       </c>
       <c r="E65" t="n">
-        <v>-14.57774258105205</v>
+        <v>-14.72157227406982</v>
       </c>
       <c r="F65" t="n">
-        <v>-3.097919335924592</v>
+        <v>-3.004025959045491</v>
       </c>
       <c r="G65" t="n">
-        <v>0.70643691253094</v>
+        <v>0.7244871258835899</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.079172242117439</v>
       </c>
       <c r="E66" t="n">
-        <v>-14.42869142870041</v>
+        <v>-14.59930799034201</v>
       </c>
       <c r="F66" t="n">
-        <v>-3.003317053049788</v>
+        <v>-2.916150949619562</v>
       </c>
       <c r="G66" t="n">
-        <v>0.215644180181949</v>
+        <v>0.2480925187576636</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.280353546493107</v>
       </c>
       <c r="E67" t="n">
-        <v>-14.0806772528928</v>
+        <v>-14.25167515707002</v>
       </c>
       <c r="F67" t="n">
-        <v>-3.260664596510457</v>
+        <v>-3.175234090517985</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2351757626152743</v>
+        <v>0.2665729647146021</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.494127450577059</v>
       </c>
       <c r="E68" t="n">
-        <v>-14.13920355409664</v>
+        <v>-14.29963631443446</v>
       </c>
       <c r="F68" t="n">
-        <v>-3.546402602847301</v>
+        <v>-3.450509622159632</v>
       </c>
       <c r="G68" t="n">
-        <v>0.315375031260147</v>
+        <v>0.3302767241905039</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.707565938917822</v>
       </c>
       <c r="E69" t="n">
-        <v>-13.96801008964475</v>
+        <v>-14.15706309618148</v>
       </c>
       <c r="F69" t="n">
-        <v>-3.509466155967759</v>
+        <v>-3.411793576780532</v>
       </c>
       <c r="G69" t="n">
-        <v>0.4844075546768645</v>
+        <v>0.5145727270457298</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.906091370327541</v>
       </c>
       <c r="E70" t="n">
-        <v>-14.13378164548123</v>
+        <v>-14.30586979818977</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.76416385770656</v>
+        <v>-3.701208116281296</v>
       </c>
       <c r="G70" t="n">
-        <v>0.5195595140499829</v>
+        <v>0.5562172875381113</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.081862811833539</v>
       </c>
       <c r="E71" t="n">
-        <v>-13.89112556765564</v>
+        <v>-14.08739963733481</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.748039913059475</v>
+        <v>-3.667625528112457</v>
       </c>
       <c r="G71" t="n">
-        <v>0.631532438322936</v>
+        <v>0.6595464476703586</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.227287495385498</v>
       </c>
       <c r="E72" t="n">
-        <v>-13.89389763454918</v>
+        <v>-14.06889474634354</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.928615381688978</v>
+        <v>-3.854771821971095</v>
       </c>
       <c r="G72" t="n">
-        <v>0.5167923361633091</v>
+        <v>0.5504482594351516</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.342952339547244</v>
       </c>
       <c r="E73" t="n">
-        <v>-14.18463709491088</v>
+        <v>-14.34422894606759</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.812374354421209</v>
+        <v>-3.736506745860422</v>
       </c>
       <c r="G73" t="n">
-        <v>0.9445755480115001</v>
+        <v>0.9787448170043688</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.429494125266204</v>
       </c>
       <c r="E74" t="n">
-        <v>-14.84547437509804</v>
+        <v>-14.98157943726609</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.864442277553853</v>
+        <v>-3.795013491036793</v>
       </c>
       <c r="G74" t="n">
-        <v>1.239856895752562</v>
+        <v>1.289230976101536</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.495462820958438</v>
       </c>
       <c r="E75" t="n">
-        <v>-14.94948310718479</v>
+        <v>-15.08082138765759</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.976028970284319</v>
+        <v>-3.90640951249945</v>
       </c>
       <c r="G75" t="n">
-        <v>1.496793762636411</v>
+        <v>1.540887715569116</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.546381049626166</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.40245937141819</v>
+        <v>-15.53352386750645</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.813660163227207</v>
+        <v>-3.758986399434497</v>
       </c>
       <c r="G76" t="n">
-        <v>1.842104317646613</v>
+        <v>1.849990285722947</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.594017331852527</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.04041121046133</v>
+        <v>-16.14939695153859</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.968695459983947</v>
+        <v>-3.910570057343195</v>
       </c>
       <c r="G77" t="n">
-        <v>2.122488861464185</v>
+        <v>2.162964949315374</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.643385736895913</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.86696626740943</v>
+        <v>-16.97383506851333</v>
       </c>
       <c r="F78" t="n">
-        <v>-4.296210029998579</v>
+        <v>-4.247178180130289</v>
       </c>
       <c r="G78" t="n">
-        <v>2.468503433463224</v>
+        <v>2.498981502271572</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.704768396643862</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.52030381106275</v>
+        <v>-17.63652039329618</v>
       </c>
       <c r="F79" t="n">
-        <v>-4.035997528513898</v>
+        <v>-3.975070724938404</v>
       </c>
       <c r="G79" t="n">
-        <v>2.588587220128389</v>
+        <v>2.646595286604335</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.778811839527024</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.24657067014983</v>
+        <v>-18.36691846318581</v>
       </c>
       <c r="F80" t="n">
-        <v>-4.105543651195763</v>
+        <v>-4.061879930867346</v>
       </c>
       <c r="G80" t="n">
-        <v>2.793583278058133</v>
+        <v>2.825684497146296</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.871378906770735</v>
       </c>
       <c r="E81" t="n">
-        <v>-19.43771363618439</v>
+        <v>-19.55428222691224</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.980150403073129</v>
+        <v>-3.901921404195623</v>
       </c>
       <c r="G81" t="n">
-        <v>3.141000995027976</v>
+        <v>3.188668811980397</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.977085270757455</v>
       </c>
       <c r="E82" t="n">
-        <v>-20.52569855732704</v>
+        <v>-20.63752970040085</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.9500536768004</v>
+        <v>-3.870846876549511</v>
       </c>
       <c r="G82" t="n">
-        <v>3.611993249565961</v>
+        <v>3.605476203412364</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.097487467505956</v>
       </c>
       <c r="E83" t="n">
-        <v>-21.62152544548422</v>
+        <v>-21.72526528219329</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.688247359077105</v>
+        <v>-3.642227137438834</v>
       </c>
       <c r="G83" t="n">
-        <v>3.947129781286114</v>
+        <v>3.944817281038063</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-4.223759166173799</v>
       </c>
       <c r="E84" t="n">
-        <v>-23.09431431910802</v>
+        <v>-23.17833679112282</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.880708003400079</v>
+        <v>-3.82460664960223</v>
       </c>
       <c r="G84" t="n">
-        <v>3.874293356982815</v>
+        <v>3.888119468402451</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-4.356632162428174</v>
       </c>
       <c r="E85" t="n">
-        <v>-24.03645527640373</v>
+        <v>-24.1095459290641</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.782795862876373</v>
+        <v>-3.710277224019424</v>
       </c>
       <c r="G85" t="n">
-        <v>4.198141171847261</v>
+        <v>4.189238290342609</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-4.485877514501661</v>
       </c>
       <c r="E86" t="n">
-        <v>-25.88183536335511</v>
+        <v>-25.91597040929991</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.746103866340176</v>
+        <v>-3.700645880491601</v>
       </c>
       <c r="G86" t="n">
-        <v>4.516024398334071</v>
+        <v>4.538391604750207</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-4.611815851581674</v>
       </c>
       <c r="E87" t="n">
-        <v>-27.0638994436378</v>
+        <v>-27.06964647120986</v>
       </c>
       <c r="F87" t="n">
-        <v>-3.638433268110108</v>
+        <v>-3.57380548633636</v>
       </c>
       <c r="G87" t="n">
-        <v>4.92598229114549</v>
+        <v>4.945724100874093</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.723323327660461</v>
       </c>
       <c r="E88" t="n">
-        <v>-28.70721198777272</v>
+        <v>-28.70036737815904</v>
       </c>
       <c r="F88" t="n">
-        <v>-3.447312211668669</v>
+        <v>-3.397243892344593</v>
       </c>
       <c r="G88" t="n">
-        <v>5.095748165592245</v>
+        <v>5.099062912248013</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.822233323250776</v>
       </c>
       <c r="E89" t="n">
-        <v>-30.3581049370548</v>
+        <v>-30.30871618968522</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.564012805581929</v>
+        <v>-3.505149162904273</v>
       </c>
       <c r="G89" t="n">
-        <v>5.299707754066203</v>
+        <v>5.315328131005996</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.899849651706543</v>
       </c>
       <c r="E90" t="n">
-        <v>-32.0300646169264</v>
+        <v>-32.01517270200979</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.663670321557123</v>
+        <v>-3.598607418172219</v>
       </c>
       <c r="G90" t="n">
-        <v>5.341513651785193</v>
+        <v>5.343581701689898</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.963615605876495</v>
       </c>
       <c r="E91" t="n">
-        <v>-33.83706355546907</v>
+        <v>-33.8304169506335</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.934711973252021</v>
+        <v>-3.877554593970919</v>
       </c>
       <c r="G91" t="n">
-        <v>5.095254375898687</v>
+        <v>5.078519305393237</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.009349727578441</v>
       </c>
       <c r="E92" t="n">
-        <v>-35.85199195606163</v>
+        <v>-35.82170944752796</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.780419805539052</v>
+        <v>-3.718818319015924</v>
       </c>
       <c r="G92" t="n">
-        <v>4.722971170003714</v>
+        <v>4.696423862716366</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-5.050288113083258</v>
       </c>
       <c r="E93" t="n">
-        <v>-38.03334948391427</v>
+        <v>-38.00314519949048</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.915576400374916</v>
+        <v>-3.84141994421755</v>
       </c>
       <c r="G93" t="n">
-        <v>4.605454111943679</v>
+        <v>4.577699219960203</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-5.086109661120072</v>
       </c>
       <c r="E94" t="n">
-        <v>-40.21007467776052</v>
+        <v>-40.16659673969304</v>
       </c>
       <c r="F94" t="n">
-        <v>-4.213478255796645</v>
+        <v>-4.13534214804961</v>
       </c>
       <c r="G94" t="n">
-        <v>4.42254169803179</v>
+        <v>4.402985670564131</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-5.132504225309382</v>
       </c>
       <c r="E95" t="n">
-        <v>-42.58337461520824</v>
+        <v>-42.55454414171404</v>
       </c>
       <c r="F95" t="n">
-        <v>-4.130629145429904</v>
+        <v>-4.047428026568745</v>
       </c>
       <c r="G95" t="n">
-        <v>4.200717678466125</v>
+        <v>4.179690059931525</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.193859103234051</v>
       </c>
       <c r="E96" t="n">
-        <v>-44.83183131780586</v>
+        <v>-44.81154438381159</v>
       </c>
       <c r="F96" t="n">
-        <v>-4.261097182680397</v>
+        <v>-4.18751274032646</v>
       </c>
       <c r="G96" t="n">
-        <v>3.551418454484885</v>
+        <v>3.552865600517492</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.28255837130213</v>
       </c>
       <c r="E97" t="n">
-        <v>-46.97105782898286</v>
+        <v>-46.93423505151298</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.276962009963535</v>
+        <v>-4.196376509776176</v>
       </c>
       <c r="G97" t="n">
-        <v>3.143807284969585</v>
+        <v>3.133525703528463</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.408670204412815</v>
       </c>
       <c r="E98" t="n">
-        <v>-49.0492793124745</v>
+        <v>-49.04426074692562</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.416176480498939</v>
+        <v>-4.312441532796737</v>
       </c>
       <c r="G98" t="n">
-        <v>2.739486417075719</v>
+        <v>2.743065170102301</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.57364173148315</v>
       </c>
       <c r="E99" t="n">
-        <v>-51.32237905418481</v>
+        <v>-51.28107427966967</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.453293820632557</v>
+        <v>-4.334261170443778</v>
       </c>
       <c r="G99" t="n">
-        <v>2.346488489085628</v>
+        <v>2.358989679644329</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.798307757844041</v>
       </c>
       <c r="E100" t="n">
-        <v>-54.03461917069514</v>
+        <v>-54.00868543376959</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.606280623512059</v>
+        <v>-4.505366632772068</v>
       </c>
       <c r="G100" t="n">
-        <v>1.867468485272168</v>
+        <v>1.882756409745011</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-6.056989761279798</v>
       </c>
       <c r="E101" t="n">
-        <v>-56.38314162134134</v>
+        <v>-56.34885501618367</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.610895845994427</v>
+        <v>-4.514127733077579</v>
       </c>
       <c r="G101" t="n">
-        <v>1.435030938886674</v>
+        <v>1.45340382669254</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-6.405291176464723</v>
       </c>
       <c r="E102" t="n">
-        <v>-58.5317641925907</v>
+        <v>-58.50744627243466</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.451880897648018</v>
+        <v>-4.355547906342326</v>
       </c>
       <c r="G102" t="n">
-        <v>0.85117107181909</v>
+        <v>0.8533955699435364</v>
       </c>
     </row>
   </sheetData>
